--- a/tests/column-0-analyze.xlsx
+++ b/tests/column-0-analyze.xlsx
@@ -2,6 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
@@ -22,34 +23,34 @@
     <t>count</t>
   </si>
   <si>
+    <t>bom    N    I-NP</t>
+  </si>
+  <si>
+    <t>nghèo    A    I-NP</t>
+  </si>
+  <si>
+    <t>còn    V    I-VP</t>
+  </si>
+  <si>
+    <t>của    E    B-PP</t>
+  </si>
+  <si>
+    <t>người    N    B-NP</t>
+  </si>
+  <si>
+    <t>không    R    B-VP</t>
+  </si>
+  <si>
+    <t>đất    N    I-NP</t>
+  </si>
+  <si>
     <t>.    CH    O</t>
   </si>
   <si>
-    <t>của    E    B-PP</t>
+    <t>Mảnh    Nc    B-NP</t>
   </si>
   <si>
     <t>đạn    N    B-NP</t>
-  </si>
-  <si>
-    <t>người    N    B-NP</t>
-  </si>
-  <si>
-    <t>không    R    B-VP</t>
-  </si>
-  <si>
-    <t>đất    N    I-NP</t>
-  </si>
-  <si>
-    <t>bom    N    I-NP</t>
-  </si>
-  <si>
-    <t>Mảnh    Nc    B-NP</t>
-  </si>
-  <si>
-    <t>nghèo    A    I-NP</t>
-  </si>
-  <si>
-    <t>còn    V    I-VP</t>
   </si>
 </sst>
 </file>

--- a/tests/column-0-analyze.xlsx
+++ b/tests/column-0-analyze.xlsx
@@ -23,34 +23,34 @@
     <t>count</t>
   </si>
   <si>
+    <t>của    E    B-PP</t>
+  </si>
+  <si>
+    <t>người    N    B-NP</t>
+  </si>
+  <si>
+    <t>nghèo    A    I-NP</t>
+  </si>
+  <si>
+    <t>Mảnh    Nc    B-NP</t>
+  </si>
+  <si>
+    <t>không    R    B-VP</t>
+  </si>
+  <si>
+    <t>.    CH    O</t>
+  </si>
+  <si>
+    <t>còn    V    I-VP</t>
+  </si>
+  <si>
+    <t>đạn    N    B-NP</t>
+  </si>
+  <si>
+    <t>đất    N    I-NP</t>
+  </si>
+  <si>
     <t>bom    N    I-NP</t>
-  </si>
-  <si>
-    <t>nghèo    A    I-NP</t>
-  </si>
-  <si>
-    <t>còn    V    I-VP</t>
-  </si>
-  <si>
-    <t>của    E    B-PP</t>
-  </si>
-  <si>
-    <t>người    N    B-NP</t>
-  </si>
-  <si>
-    <t>không    R    B-VP</t>
-  </si>
-  <si>
-    <t>đất    N    I-NP</t>
-  </si>
-  <si>
-    <t>.    CH    O</t>
-  </si>
-  <si>
-    <t>Mảnh    Nc    B-NP</t>
-  </si>
-  <si>
-    <t>đạn    N    B-NP</t>
   </si>
 </sst>
 </file>
